--- a/teaching/traditional_assets/database/data/denmark/denmark_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/denmark/denmark_investments_asset_management.xlsx
@@ -591,40 +591,40 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.2456647398843931</v>
+        <v>-0</v>
       </c>
       <c r="H2">
-        <v>-0.2456647398843931</v>
+        <v>-0</v>
       </c>
       <c r="I2">
-        <v>1.427745664739884</v>
+        <v>1.398095238095238</v>
       </c>
       <c r="J2">
-        <v>1.427745664739884</v>
+        <v>1.398095238095238</v>
       </c>
       <c r="K2">
-        <v>-25.99</v>
+        <v>-11.61</v>
       </c>
       <c r="L2">
-        <v>3.755780346820809</v>
+        <v>3.685714285714285</v>
       </c>
       <c r="M2">
-        <v>0.986</v>
+        <v>1.0125</v>
       </c>
       <c r="N2">
-        <v>0.01531055900621118</v>
+        <v>0.01498002663115845</v>
       </c>
       <c r="O2">
-        <v>-0.03793766833397461</v>
+        <v>-0.0872093023255814</v>
       </c>
       <c r="P2">
-        <v>0.986</v>
+        <v>1.0125</v>
       </c>
       <c r="Q2">
-        <v>0.01531055900621118</v>
+        <v>0.01498002663115845</v>
       </c>
       <c r="R2">
-        <v>-0.03793766833397461</v>
+        <v>-0.0872093023255814</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,67 +633,67 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>8.4</v>
+        <v>13.68</v>
       </c>
       <c r="V2">
-        <v>0.1304347826086956</v>
+        <v>0.2023968042609853</v>
       </c>
       <c r="W2">
-        <v>-0.2859957079303169</v>
+        <v>-0.1714190031152648</v>
       </c>
       <c r="X2">
-        <v>0.04851142626829643</v>
+        <v>0.03794155261889419</v>
       </c>
       <c r="Y2">
-        <v>-0.3345071341986133</v>
+        <v>-0.209360555734159</v>
       </c>
       <c r="Z2">
-        <v>-0.07725801049458525</v>
+        <v>-0.04645332546822004</v>
       </c>
       <c r="AA2">
-        <v>-0.1020005790185984</v>
+        <v>-0.05475984438686737</v>
       </c>
       <c r="AB2">
-        <v>0.04789318226504467</v>
+        <v>0.0352421290285729</v>
       </c>
       <c r="AC2">
-        <v>-0.149893761283643</v>
+        <v>-0.09000197341544028</v>
       </c>
       <c r="AD2">
-        <v>3.41</v>
+        <v>15.8</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.41</v>
+        <v>15.8</v>
       </c>
       <c r="AG2">
-        <v>-4.99</v>
+        <v>2.120000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.05028756820527946</v>
+        <v>0.1894711596114642</v>
       </c>
       <c r="AI2">
-        <v>0.04474478414906181</v>
+        <v>0.1994949494949495</v>
       </c>
       <c r="AJ2">
-        <v>-0.08399259383942097</v>
+        <v>0.03041170563764167</v>
       </c>
       <c r="AK2">
-        <v>-0.07358796637664061</v>
+        <v>0.03235653235653237</v>
       </c>
       <c r="AL2">
-        <v>1.806</v>
+        <v>4.856</v>
       </c>
       <c r="AM2">
-        <v>1.788</v>
+        <v>4.708</v>
       </c>
       <c r="AO2">
-        <v>-5.470653377630121</v>
+        <v>-0.9069192751235585</v>
       </c>
       <c r="AQ2">
-        <v>-5.525727069351229</v>
+        <v>-0.9354290569243839</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-18.4</v>
+        <v>-7.18</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -737,31 +737,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>5.66</v>
+        <v>8.85</v>
       </c>
       <c r="V3">
-        <v>0.4131386861313869</v>
+        <v>1.067551266586249</v>
       </c>
       <c r="W3">
-        <v>-0.4309133489461358</v>
+        <v>-0.2393333333333333</v>
       </c>
       <c r="X3">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y3">
-        <v>-0.4786755662827562</v>
+        <v>-0.2745788295036371</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.0670963961324348</v>
+        <v>-0.01865242399342646</v>
       </c>
       <c r="AB3">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC3">
-        <v>-0.1148586134690553</v>
+        <v>-0.05389792016373023</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-5.66</v>
+        <v>-8.85</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -782,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.7039800995024876</v>
+        <v>15.80357142857141</v>
       </c>
       <c r="AK3">
-        <v>-0.2325390304026294</v>
+        <v>-0.6436363636363636</v>
       </c>
       <c r="AL3">
-        <v>1.68</v>
+        <v>4.72</v>
       </c>
       <c r="AM3">
-        <v>1.662</v>
+        <v>4.572</v>
       </c>
       <c r="AO3">
-        <v>-1.363095238095238</v>
+        <v>-0.09618644067796611</v>
       </c>
       <c r="AQ3">
-        <v>-1.377858002406739</v>
+        <v>-0.09930008748906387</v>
       </c>
     </row>
     <row r="4">
@@ -823,34 +823,34 @@
         <v>-0</v>
       </c>
       <c r="I4">
-        <v>1.096820809248555</v>
+        <v>1.253968253968254</v>
       </c>
       <c r="J4">
-        <v>1.096820809248555</v>
+        <v>1.253968253968254</v>
       </c>
       <c r="K4">
-        <v>-7.59</v>
+        <v>-4.43</v>
       </c>
       <c r="L4">
-        <v>1.096820809248555</v>
+        <v>1.406349206349206</v>
       </c>
       <c r="M4">
-        <v>0.986</v>
+        <v>1.0125</v>
       </c>
       <c r="N4">
-        <v>0.01944773175542406</v>
+        <v>0.01707419898819561</v>
       </c>
       <c r="O4">
-        <v>-0.1299077733860343</v>
+        <v>-0.2285553047404063</v>
       </c>
       <c r="P4">
-        <v>0.986</v>
+        <v>1.0125</v>
       </c>
       <c r="Q4">
-        <v>0.01944773175542406</v>
+        <v>0.01707419898819561</v>
       </c>
       <c r="R4">
-        <v>-0.1299077733860343</v>
+        <v>-0.2285553047404063</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -859,67 +859,67 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2.74</v>
+        <v>4.83</v>
       </c>
       <c r="V4">
-        <v>0.05404339250493097</v>
+        <v>0.08145025295109613</v>
       </c>
       <c r="W4">
-        <v>-0.1410780669144981</v>
+        <v>-0.1035046728971963</v>
       </c>
       <c r="X4">
-        <v>0.0492606351999724</v>
+        <v>0.04063760906748461</v>
       </c>
       <c r="Y4">
-        <v>-0.1903387021144705</v>
+        <v>-0.1441422819646809</v>
       </c>
       <c r="Z4">
-        <v>-0.1248196248196248</v>
+        <v>-0.07246376811594205</v>
       </c>
       <c r="AA4">
-        <v>-0.1369047619047619</v>
+        <v>-0.09086726478030828</v>
       </c>
       <c r="AB4">
-        <v>0.04802414719346887</v>
+        <v>0.03523876188684204</v>
       </c>
       <c r="AC4">
-        <v>-0.1849289090982308</v>
+        <v>-0.1261060266671503</v>
       </c>
       <c r="AD4">
-        <v>3.41</v>
+        <v>15.8</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>3.41</v>
+        <v>15.8</v>
       </c>
       <c r="AG4">
-        <v>0.6699999999999999</v>
+        <v>10.97</v>
       </c>
       <c r="AH4">
-        <v>0.06301977453335798</v>
+        <v>0.2103861517976032</v>
       </c>
       <c r="AI4">
-        <v>0.07379355117939841</v>
+        <v>0.2791519434628976</v>
       </c>
       <c r="AJ4">
-        <v>0.01304263188631497</v>
+        <v>0.1561121388928419</v>
       </c>
       <c r="AK4">
-        <v>0.01541292845640672</v>
+        <v>0.2118987830790033</v>
       </c>
       <c r="AL4">
-        <v>0.126</v>
+        <v>0.136</v>
       </c>
       <c r="AM4">
-        <v>0.126</v>
+        <v>0.136</v>
       </c>
       <c r="AO4">
-        <v>-60.23809523809523</v>
+        <v>-29.04411764705882</v>
       </c>
       <c r="AQ4">
-        <v>-60.23809523809523</v>
+        <v>-29.04411764705882</v>
       </c>
     </row>
   </sheetData>
